--- a/infor.xlsx
+++ b/infor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaia\Documents\WebReparacionesDesarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaia\Documents\ReparacionesDesarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF3A321-4433-467F-A675-41AF09A6FCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E5D92-581F-4895-BC4F-BC1160E4BF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Información" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nombre del negocio</t>
   </si>
   <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
     <t>Host/dominio</t>
   </si>
   <si>
@@ -65,13 +62,43 @@
   </si>
   <si>
     <t>Se hacen en el diseñador de pcs de pccomponentes y se cobra cierto dinero por el link al presupuesto.</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>developercenter.logistics@gmail.com</t>
+  </si>
+  <si>
+    <t>Database Name</t>
+  </si>
+  <si>
+    <t>dbdevelopercenter</t>
+  </si>
+  <si>
+    <t>Database Pass</t>
+  </si>
+  <si>
+    <t>IjI3?_c4_root</t>
+  </si>
+  <si>
+    <t>Email pass</t>
+  </si>
+  <si>
+    <t>IjI3?_c4</t>
+  </si>
+  <si>
+    <t>Database UserName</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +110,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,14 +140,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -129,8 +167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{135B475C-7FED-440C-9436-7C832CB93DCE}" name="Tabla1" displayName="Tabla1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{135B475C-7FED-440C-9436-7C832CB93DCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{135B475C-7FED-440C-9436-7C832CB93DCE}" name="Tabla1" displayName="Tabla1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{135B475C-7FED-440C-9436-7C832CB93DCE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{15562EB2-6F3F-46DA-97E1-0E164079868F}" name="Columna1"/>
     <tableColumn id="2" xr3:uid="{1BDB867F-8160-4CCE-8E16-193533D48F3D}" name="Columna2"/>
@@ -413,24 +451,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -445,17 +483,53 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{C7CB1147-B1C9-4B2C-9E26-FF1D51F16753}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -464,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63E25A2-FC50-4642-B2B0-E91227410A7B}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,34 +550,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/infor.xlsx
+++ b/infor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaia\Documents\ReparacionesDesarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E5D92-581F-4895-BC4F-BC1160E4BF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3585F0D1-0E18-4E7A-B886-688D3EBADA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nombre del negocio</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>root</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://developercenterdc.000webhostapp.com/</t>
   </si>
 </sst>
 </file>
@@ -167,8 +173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{135B475C-7FED-440C-9436-7C832CB93DCE}" name="Tabla1" displayName="Tabla1" ref="A1:B8" totalsRowShown="0">
-  <autoFilter ref="A1:B8" xr:uid="{135B475C-7FED-440C-9436-7C832CB93DCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{135B475C-7FED-440C-9436-7C832CB93DCE}" name="Tabla1" displayName="Tabla1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{135B475C-7FED-440C-9436-7C832CB93DCE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{15562EB2-6F3F-46DA-97E1-0E164079868F}" name="Columna1"/>
     <tableColumn id="2" xr3:uid="{1BDB867F-8160-4CCE-8E16-193533D48F3D}" name="Columna2"/>
@@ -451,23 +457,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -521,6 +527,14 @@
         <v>17</v>
       </c>
       <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/infor.xlsx
+++ b/infor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaia\Documents\ReparacionesDesarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3585F0D1-0E18-4E7A-B886-688D3EBADA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F3EBAF-BF7E-455C-A409-A8681CD14DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="2145" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Información" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nombre del negocio</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>https://developercenterdc.000webhostapp.com/</t>
+  </si>
+  <si>
+    <t>Presupuestos publicos semanales</t>
+  </si>
+  <si>
+    <t>(Estilo blog) publicar presupuestos semanales con link a amazon afiliados.</t>
   </si>
 </sst>
 </file>
@@ -184,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5BB4E33C-BCC7-42CE-B81B-FFB443330427}" name="Tabla2" displayName="Tabla2" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{5BB4E33C-BCC7-42CE-B81B-FFB443330427}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5BB4E33C-BCC7-42CE-B81B-FFB443330427}" name="Tabla2" displayName="Tabla2" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{5BB4E33C-BCC7-42CE-B81B-FFB443330427}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6610365C-AE62-47EB-B9CC-D6AD3C39C085}" name="Idea:"/>
     <tableColumn id="2" xr3:uid="{372906F9-F525-4B89-97B4-3FB978E08D24}" name="Descripción:"/>
@@ -459,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63E25A2-FC50-4642-B2B0-E91227410A7B}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,13 +600,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>